--- a/data/pca/factorExposure/factorExposure_2015-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01345846015424417</v>
+        <v>0.01420443643059831</v>
       </c>
       <c r="C2">
-        <v>0.03023816909027851</v>
+        <v>-0.03306082026836756</v>
       </c>
       <c r="D2">
-        <v>0.09146222625852829</v>
+        <v>0.1224836365468001</v>
       </c>
       <c r="E2">
-        <v>-0.05680210156842348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06763472240871933</v>
+      </c>
+      <c r="F2">
+        <v>-0.02418881642479108</v>
+      </c>
+      <c r="G2">
+        <v>-0.0715643455237749</v>
+      </c>
+      <c r="H2">
+        <v>0.09536870742167755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01770154764225736</v>
+        <v>0.01048161458486931</v>
       </c>
       <c r="C3">
-        <v>0.05291717251166408</v>
+        <v>-0.03610262289858412</v>
       </c>
       <c r="D3">
-        <v>0.1229937767383726</v>
+        <v>0.07314865363706177</v>
       </c>
       <c r="E3">
-        <v>-0.08751418765968785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.04548802535592721</v>
+      </c>
+      <c r="F3">
+        <v>-0.03812277953495582</v>
+      </c>
+      <c r="G3">
+        <v>-0.09621923737907982</v>
+      </c>
+      <c r="H3">
+        <v>0.006984493673395504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04891031930977519</v>
+        <v>0.05336158270234097</v>
       </c>
       <c r="C4">
-        <v>0.04192375560058983</v>
+        <v>-0.06562453288212595</v>
       </c>
       <c r="D4">
-        <v>0.1267251640638956</v>
+        <v>0.1436307631671205</v>
       </c>
       <c r="E4">
-        <v>-0.0455544860909872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05533791682059596</v>
+      </c>
+      <c r="F4">
+        <v>-0.01411483874258261</v>
+      </c>
+      <c r="G4">
+        <v>0.03887357447503807</v>
+      </c>
+      <c r="H4">
+        <v>-0.02261517739139024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04424909556363794</v>
+        <v>0.04012533125683114</v>
       </c>
       <c r="C6">
-        <v>0.008733882342113074</v>
+        <v>-0.02716241381225536</v>
       </c>
       <c r="D6">
-        <v>0.1350350818101008</v>
+        <v>0.1326984805610896</v>
       </c>
       <c r="E6">
-        <v>-0.04795805404984112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03089763642329628</v>
+      </c>
+      <c r="F6">
+        <v>-0.0125117648046105</v>
+      </c>
+      <c r="G6">
+        <v>-0.011399186791867</v>
+      </c>
+      <c r="H6">
+        <v>0.01517375097668349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01849884348870857</v>
+        <v>0.0137529496639277</v>
       </c>
       <c r="C7">
-        <v>0.01552626805076273</v>
+        <v>-0.0295262054860806</v>
       </c>
       <c r="D7">
-        <v>0.09612437040726907</v>
+        <v>0.09280489110764681</v>
       </c>
       <c r="E7">
-        <v>-0.04362756143949744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0311243630298475</v>
+      </c>
+      <c r="F7">
+        <v>-0.01682705080587607</v>
+      </c>
+      <c r="G7">
+        <v>-0.001084593988410197</v>
+      </c>
+      <c r="H7">
+        <v>0.1135710095911928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009015974027843271</v>
+        <v>0.006073687258013489</v>
       </c>
       <c r="C8">
-        <v>0.02960287017125844</v>
+        <v>-0.03747165809839206</v>
       </c>
       <c r="D8">
-        <v>0.0560789624221288</v>
+        <v>0.07269379022517533</v>
       </c>
       <c r="E8">
-        <v>-0.03050628327192784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03728543161430231</v>
+      </c>
+      <c r="F8">
+        <v>-0.03904948150258476</v>
+      </c>
+      <c r="G8">
+        <v>-0.01613944177644655</v>
+      </c>
+      <c r="H8">
+        <v>0.04488821804043459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04008377453037333</v>
+        <v>0.0413540349885591</v>
       </c>
       <c r="C9">
-        <v>0.04048358466271289</v>
+        <v>-0.05998131934077205</v>
       </c>
       <c r="D9">
-        <v>0.113002801837775</v>
+        <v>0.1219234541910953</v>
       </c>
       <c r="E9">
-        <v>-0.03937332637187134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.03806592010342146</v>
+      </c>
+      <c r="F9">
+        <v>0.001058051824939737</v>
+      </c>
+      <c r="G9">
+        <v>0.02717926455982874</v>
+      </c>
+      <c r="H9">
+        <v>0.009291713614027619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09866391614428066</v>
+        <v>0.1391945822160511</v>
       </c>
       <c r="C10">
-        <v>-0.193418449894607</v>
+        <v>0.1865623514167536</v>
       </c>
       <c r="D10">
-        <v>0.0007624426325474474</v>
+        <v>0.0007448854457682292</v>
       </c>
       <c r="E10">
-        <v>-0.02899395871642031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0446541059334194</v>
+      </c>
+      <c r="F10">
+        <v>-0.02013417132483697</v>
+      </c>
+      <c r="G10">
+        <v>0.03651719260931716</v>
+      </c>
+      <c r="H10">
+        <v>0.002348244255365171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03322608437914743</v>
+        <v>0.02755794095028534</v>
       </c>
       <c r="C11">
-        <v>0.04007307696773144</v>
+        <v>-0.04408215339021191</v>
       </c>
       <c r="D11">
-        <v>0.0586267922657967</v>
+        <v>0.05749954298191574</v>
       </c>
       <c r="E11">
-        <v>-0.005972587794945977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.004305469391208613</v>
+      </c>
+      <c r="F11">
+        <v>-0.001045917315970273</v>
+      </c>
+      <c r="G11">
+        <v>-0.002982630183274771</v>
+      </c>
+      <c r="H11">
+        <v>0.04852258989525308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03840158777674287</v>
+        <v>0.03292602774176938</v>
       </c>
       <c r="C12">
-        <v>0.04217348908614563</v>
+        <v>-0.04626975623279287</v>
       </c>
       <c r="D12">
-        <v>0.06223981101857167</v>
+        <v>0.05765959264016711</v>
       </c>
       <c r="E12">
-        <v>-0.01840767892863638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.00417634155213299</v>
+      </c>
+      <c r="F12">
+        <v>0.007022847997562522</v>
+      </c>
+      <c r="G12">
+        <v>-0.003560168456814631</v>
+      </c>
+      <c r="H12">
+        <v>0.06126652852042654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01846225171313456</v>
+        <v>0.01844054932125088</v>
       </c>
       <c r="C13">
-        <v>0.02766792539886099</v>
+        <v>-0.03836606080314228</v>
       </c>
       <c r="D13">
-        <v>0.1293221076882909</v>
+        <v>0.14670149937289</v>
       </c>
       <c r="E13">
-        <v>-0.07854625814885073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04989622151694362</v>
+      </c>
+      <c r="F13">
+        <v>-0.03243816210565791</v>
+      </c>
+      <c r="G13">
+        <v>-0.01342217345272045</v>
+      </c>
+      <c r="H13">
+        <v>0.1029382077028477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01124549340966751</v>
+        <v>0.008097613873589661</v>
       </c>
       <c r="C14">
-        <v>0.02072755535821607</v>
+        <v>-0.02533743899835816</v>
       </c>
       <c r="D14">
-        <v>0.07916285283156961</v>
+        <v>0.08407655582361293</v>
       </c>
       <c r="E14">
-        <v>-0.05653853945752634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03596731739378683</v>
+      </c>
+      <c r="F14">
+        <v>0.01044782212793322</v>
+      </c>
+      <c r="G14">
+        <v>-0.01689667272800325</v>
+      </c>
+      <c r="H14">
+        <v>0.1040471070736612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0002044440784886661</v>
+        <v>0.001216458157268388</v>
       </c>
       <c r="C15">
-        <v>0.0003679356548089181</v>
+        <v>-0.009880337638969129</v>
       </c>
       <c r="D15">
-        <v>0.002401479470100933</v>
+        <v>0.03071907064339344</v>
       </c>
       <c r="E15">
-        <v>-0.002020509241151644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006233734457296295</v>
+      </c>
+      <c r="F15">
+        <v>0.001558424239707923</v>
+      </c>
+      <c r="G15">
+        <v>-0.01029277364998203</v>
+      </c>
+      <c r="H15">
+        <v>0.009365870431825914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0326368690218239</v>
+        <v>0.02800894698592854</v>
       </c>
       <c r="C16">
-        <v>0.0406993018824969</v>
+        <v>-0.04339555166026308</v>
       </c>
       <c r="D16">
-        <v>0.0684814510615811</v>
+        <v>0.06078001374450685</v>
       </c>
       <c r="E16">
-        <v>-0.0273614805900573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008465987368968312</v>
+      </c>
+      <c r="F16">
+        <v>0.006771121191020767</v>
+      </c>
+      <c r="G16">
+        <v>-0.004810051830891794</v>
+      </c>
+      <c r="H16">
+        <v>0.06064663809465953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009576803658825215</v>
+        <v>0.006326062008256093</v>
       </c>
       <c r="C19">
-        <v>0.02505750926327227</v>
+        <v>-0.02027545519804727</v>
       </c>
       <c r="D19">
-        <v>0.1715946706303325</v>
+        <v>0.1251183115761429</v>
       </c>
       <c r="E19">
-        <v>-0.1172108034877161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06561275261096892</v>
+      </c>
+      <c r="F19">
+        <v>0.009945286233975881</v>
+      </c>
+      <c r="G19">
+        <v>-0.02253260132628506</v>
+      </c>
+      <c r="H19">
+        <v>0.0669924168091489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01973411586193299</v>
+        <v>0.01571274079935595</v>
       </c>
       <c r="C20">
-        <v>0.0238696229562857</v>
+        <v>-0.03258162712365098</v>
       </c>
       <c r="D20">
-        <v>0.09004836990944612</v>
+        <v>0.09891173147778363</v>
       </c>
       <c r="E20">
-        <v>-0.0724816066235011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05168467846934566</v>
+      </c>
+      <c r="F20">
+        <v>0.005239229808244759</v>
+      </c>
+      <c r="G20">
+        <v>-0.00369343797194044</v>
+      </c>
+      <c r="H20">
+        <v>0.05949057475280963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01323521811772536</v>
+        <v>0.01405170093060001</v>
       </c>
       <c r="C21">
-        <v>0.0294479340386909</v>
+        <v>-0.03710334475572925</v>
       </c>
       <c r="D21">
-        <v>0.1306506081575149</v>
+        <v>0.1392868614746084</v>
       </c>
       <c r="E21">
-        <v>-0.09779152793024315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08975285066437942</v>
+      </c>
+      <c r="F21">
+        <v>0.00212432870636955</v>
+      </c>
+      <c r="G21">
+        <v>0.01974705815119476</v>
+      </c>
+      <c r="H21">
+        <v>0.1242256324367981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006401397698972101</v>
+        <v>0.005511106627313465</v>
       </c>
       <c r="C22">
-        <v>0.02870281370574323</v>
+        <v>-0.04093232755122129</v>
       </c>
       <c r="D22">
-        <v>0.08501152016121387</v>
+        <v>0.1417095391854217</v>
       </c>
       <c r="E22">
-        <v>0.01981891837191796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0289336365518876</v>
+      </c>
+      <c r="F22">
+        <v>-0.08426977699221214</v>
+      </c>
+      <c r="G22">
+        <v>-0.06699007620516022</v>
+      </c>
+      <c r="H22">
+        <v>-0.06093213923117055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006483690990434069</v>
+        <v>0.005614601016467287</v>
       </c>
       <c r="C23">
-        <v>0.02858609697283551</v>
+        <v>-0.0413994761121499</v>
       </c>
       <c r="D23">
-        <v>0.08430066686191243</v>
+        <v>0.1411630805117034</v>
       </c>
       <c r="E23">
-        <v>0.0195459665973063</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02920478765332289</v>
+      </c>
+      <c r="F23">
+        <v>-0.08423021700176755</v>
+      </c>
+      <c r="G23">
+        <v>-0.0660380895587587</v>
+      </c>
+      <c r="H23">
+        <v>-0.06106432380785373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03400855712935684</v>
+        <v>0.03001993184284684</v>
       </c>
       <c r="C24">
-        <v>0.04663690833110276</v>
+        <v>-0.05556375770273795</v>
       </c>
       <c r="D24">
-        <v>0.06840127685801091</v>
+        <v>0.06594985125583189</v>
       </c>
       <c r="E24">
-        <v>-0.02400346745437262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.01341797801018313</v>
+      </c>
+      <c r="F24">
+        <v>0.005393151020911521</v>
+      </c>
+      <c r="G24">
+        <v>0.003590582473753689</v>
+      </c>
+      <c r="H24">
+        <v>0.07287478283044276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03928164097436885</v>
+        <v>0.0344783142074131</v>
       </c>
       <c r="C25">
-        <v>0.04853794168772561</v>
+        <v>-0.05321840725463218</v>
       </c>
       <c r="D25">
-        <v>0.06747133569074919</v>
+        <v>0.06233264013974563</v>
       </c>
       <c r="E25">
-        <v>-0.02480664941047824</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01336058114623436</v>
+      </c>
+      <c r="F25">
+        <v>0.0001203136566743034</v>
+      </c>
+      <c r="G25">
+        <v>0.00498627193411512</v>
+      </c>
+      <c r="H25">
+        <v>0.05645606926102191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02010668629916987</v>
+        <v>0.01784817213921591</v>
       </c>
       <c r="C26">
-        <v>0.008488478754525665</v>
+        <v>-0.0178444742729448</v>
       </c>
       <c r="D26">
-        <v>0.05341347881197384</v>
+        <v>0.06244180416926579</v>
       </c>
       <c r="E26">
-        <v>-0.03502603613763076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02659385979207241</v>
+      </c>
+      <c r="F26">
+        <v>-0.001752716238354565</v>
+      </c>
+      <c r="G26">
+        <v>-0.009325657269954463</v>
+      </c>
+      <c r="H26">
+        <v>0.06422969387715931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1484026994330856</v>
+        <v>0.1996267230242676</v>
       </c>
       <c r="C28">
-        <v>-0.2728695014906668</v>
+        <v>0.2514012962995038</v>
       </c>
       <c r="D28">
-        <v>-0.03001387559123244</v>
+        <v>-0.01205200235912969</v>
       </c>
       <c r="E28">
-        <v>-0.06403480321399663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.07111207083468514</v>
+      </c>
+      <c r="F28">
+        <v>-0.001046375462977185</v>
+      </c>
+      <c r="G28">
+        <v>0.06576639127674454</v>
+      </c>
+      <c r="H28">
+        <v>0.01954220064674978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006316844956732316</v>
+        <v>0.006539421760061792</v>
       </c>
       <c r="C29">
-        <v>0.0197537041889157</v>
+        <v>-0.02335109068732541</v>
       </c>
       <c r="D29">
-        <v>0.0650928273789442</v>
+        <v>0.07967589430734116</v>
       </c>
       <c r="E29">
-        <v>-0.04595737789717784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03317768005032885</v>
+      </c>
+      <c r="F29">
+        <v>-0.004695917042777657</v>
+      </c>
+      <c r="G29">
+        <v>0.001849577390575185</v>
+      </c>
+      <c r="H29">
+        <v>0.1097129840290584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03811374124304164</v>
+        <v>0.04113704674421961</v>
       </c>
       <c r="C30">
-        <v>0.03835771851817566</v>
+        <v>-0.05959372243182446</v>
       </c>
       <c r="D30">
-        <v>0.1675428396881486</v>
+        <v>0.1787342490571552</v>
       </c>
       <c r="E30">
-        <v>-0.02210772190797137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.01970247046321499</v>
+      </c>
+      <c r="F30">
+        <v>-0.005294068482706606</v>
+      </c>
+      <c r="G30">
+        <v>-0.02589261970045247</v>
+      </c>
+      <c r="H30">
+        <v>0.005580433775642163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06783588243945866</v>
+        <v>0.0558151309123518</v>
       </c>
       <c r="C31">
-        <v>0.05073347564736292</v>
+        <v>-0.07198551515861361</v>
       </c>
       <c r="D31">
-        <v>0.07011563755580276</v>
+        <v>0.05759679776397107</v>
       </c>
       <c r="E31">
-        <v>-0.04245290337600769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.03290871408558155</v>
+      </c>
+      <c r="F31">
+        <v>-0.03331525553931476</v>
+      </c>
+      <c r="G31">
+        <v>0.01801870093319517</v>
+      </c>
+      <c r="H31">
+        <v>0.04736429697265326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005933344059087568</v>
+        <v>0.01219348103180917</v>
       </c>
       <c r="C32">
-        <v>0.009534932191332097</v>
+        <v>-0.01823246044389688</v>
       </c>
       <c r="D32">
-        <v>0.06340019078183406</v>
+        <v>0.0995804028897614</v>
       </c>
       <c r="E32">
-        <v>-0.09230313554165274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.09086049714004973</v>
+      </c>
+      <c r="F32">
+        <v>-0.01344267050989322</v>
+      </c>
+      <c r="G32">
+        <v>0.02118176102438647</v>
+      </c>
+      <c r="H32">
+        <v>0.09500117533415325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02480992369485855</v>
+        <v>0.02322708649887352</v>
       </c>
       <c r="C33">
-        <v>0.02361586996493355</v>
+        <v>-0.04207252498111385</v>
       </c>
       <c r="D33">
-        <v>0.1347939144535335</v>
+        <v>0.1321972530569257</v>
       </c>
       <c r="E33">
-        <v>-0.0644951797373606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04385937469848035</v>
+      </c>
+      <c r="F33">
+        <v>-0.01450748853223204</v>
+      </c>
+      <c r="G33">
+        <v>-0.005357876921719196</v>
+      </c>
+      <c r="H33">
+        <v>0.06804001203614619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03405929954482418</v>
+        <v>0.02655242584172967</v>
       </c>
       <c r="C34">
-        <v>0.06113810459733119</v>
+        <v>-0.06072642455182419</v>
       </c>
       <c r="D34">
-        <v>0.07076382659919492</v>
+        <v>0.05577223593722722</v>
       </c>
       <c r="E34">
-        <v>-0.0103306712605822</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.003802454329077276</v>
+      </c>
+      <c r="F34">
+        <v>0.01120017847360763</v>
+      </c>
+      <c r="G34">
+        <v>-0.005126467611569939</v>
+      </c>
+      <c r="H34">
+        <v>0.07700680343561037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005596787585574699</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0007561632547013669</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.004176977498170869</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.0002190662909630852</v>
+      </c>
+      <c r="F35">
+        <v>-4.985500928991605e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.002005492779700203</v>
+      </c>
+      <c r="H35">
+        <v>0.002005232453791802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01997993334306271</v>
+        <v>0.0182857738275645</v>
       </c>
       <c r="C36">
-        <v>0.002822055587071471</v>
+        <v>-0.01471595123308659</v>
       </c>
       <c r="D36">
-        <v>0.07416855127073117</v>
+        <v>0.07757509922014832</v>
       </c>
       <c r="E36">
-        <v>-0.05370371406981888</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03512107416309714</v>
+      </c>
+      <c r="F36">
+        <v>0.003606085514304176</v>
+      </c>
+      <c r="G36">
+        <v>0.006356060189411045</v>
+      </c>
+      <c r="H36">
+        <v>0.05748977048658041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02433116029121043</v>
+        <v>0.01956835515912474</v>
       </c>
       <c r="C38">
-        <v>0.01731651221814397</v>
+        <v>-0.02197484623083401</v>
       </c>
       <c r="D38">
-        <v>0.05122106663590665</v>
+        <v>0.05653123040488084</v>
       </c>
       <c r="E38">
-        <v>-0.04772511234683055</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03724902804005134</v>
+      </c>
+      <c r="F38">
+        <v>0.005247198490388234</v>
+      </c>
+      <c r="G38">
+        <v>-0.03901700430714286</v>
+      </c>
+      <c r="H38">
+        <v>0.0352955931259586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03880598027913421</v>
+        <v>0.03523867690807343</v>
       </c>
       <c r="C39">
-        <v>0.05082888058475423</v>
+        <v>-0.06403662989927823</v>
       </c>
       <c r="D39">
-        <v>0.0910823928978161</v>
+        <v>0.1042529259942954</v>
       </c>
       <c r="E39">
-        <v>-0.02291461188988564</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.006044479771767936</v>
+      </c>
+      <c r="F39">
+        <v>0.02544330872336888</v>
+      </c>
+      <c r="G39">
+        <v>-0.00860925047030465</v>
+      </c>
+      <c r="H39">
+        <v>0.08744808493471737</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01650829707129204</v>
+        <v>0.01370294588600865</v>
       </c>
       <c r="C40">
-        <v>0.04450033926859166</v>
+        <v>-0.03797919492487872</v>
       </c>
       <c r="D40">
-        <v>0.07957281629375466</v>
+        <v>0.08563929734439205</v>
       </c>
       <c r="E40">
-        <v>-0.0746377408213184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.06414846398262671</v>
+      </c>
+      <c r="F40">
+        <v>-0.06337396987622775</v>
+      </c>
+      <c r="G40">
+        <v>-0.06791336219368679</v>
+      </c>
+      <c r="H40">
+        <v>0.1594748174552154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02473675924923813</v>
+        <v>0.02269933883519263</v>
       </c>
       <c r="C41">
-        <v>-0.007491447567270047</v>
+        <v>-0.008627223957230539</v>
       </c>
       <c r="D41">
-        <v>0.06751632229347682</v>
+        <v>0.05539545718296665</v>
       </c>
       <c r="E41">
-        <v>-0.07519395021446382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.05327438028750645</v>
+      </c>
+      <c r="F41">
+        <v>-0.001441030842465037</v>
+      </c>
+      <c r="G41">
+        <v>-0.01534869415445131</v>
+      </c>
+      <c r="H41">
+        <v>0.04812674324251077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03031058777308809</v>
+        <v>0.02299590216503826</v>
       </c>
       <c r="C43">
-        <v>0.003573164109564588</v>
+        <v>-0.01830538010858597</v>
       </c>
       <c r="D43">
-        <v>0.1066381268747419</v>
+        <v>0.08572718612388749</v>
       </c>
       <c r="E43">
-        <v>-0.06286012393487385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03573223085338484</v>
+      </c>
+      <c r="F43">
+        <v>-0.004401095935965355</v>
+      </c>
+      <c r="G43">
+        <v>-0.01677534344406981</v>
+      </c>
+      <c r="H43">
+        <v>0.0691954418654898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01268539939585097</v>
+        <v>0.01705947710428311</v>
       </c>
       <c r="C44">
-        <v>0.0404222309814485</v>
+        <v>-0.04233751004150523</v>
       </c>
       <c r="D44">
-        <v>0.08216378462576555</v>
+        <v>0.09894866969205339</v>
       </c>
       <c r="E44">
-        <v>-0.0812291035674574</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06899865540780237</v>
+      </c>
+      <c r="F44">
+        <v>-0.005275772693283543</v>
+      </c>
+      <c r="G44">
+        <v>-0.006706337218967179</v>
+      </c>
+      <c r="H44">
+        <v>0.07463591311336655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02007421421786255</v>
+        <v>0.01642472873496064</v>
       </c>
       <c r="C46">
-        <v>0.01935654756118894</v>
+        <v>-0.02850134879385349</v>
       </c>
       <c r="D46">
-        <v>0.07758097228352369</v>
+        <v>0.08791073554831724</v>
       </c>
       <c r="E46">
-        <v>-0.05895605898385101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04004430484832939</v>
+      </c>
+      <c r="F46">
+        <v>0.01658357082190232</v>
+      </c>
+      <c r="G46">
+        <v>0.009896272780597433</v>
+      </c>
+      <c r="H46">
+        <v>0.1147378354576897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09256727767494619</v>
+        <v>0.08228052099159745</v>
       </c>
       <c r="C47">
-        <v>0.06912580152374993</v>
+        <v>-0.08909406549317879</v>
       </c>
       <c r="D47">
-        <v>0.04532853854895592</v>
+        <v>0.03426689596903027</v>
       </c>
       <c r="E47">
-        <v>-0.03356919484925885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.03673102207300023</v>
+      </c>
+      <c r="F47">
+        <v>-0.0214473724482874</v>
+      </c>
+      <c r="G47">
+        <v>0.04299138687488188</v>
+      </c>
+      <c r="H47">
+        <v>0.02374456750259658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01477546372620312</v>
+        <v>0.01630122337429482</v>
       </c>
       <c r="C48">
-        <v>0.01356072450845312</v>
+        <v>-0.01975435438299718</v>
       </c>
       <c r="D48">
-        <v>0.06807489833752733</v>
+        <v>0.07340998475921209</v>
       </c>
       <c r="E48">
-        <v>-0.06785920072986153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.05012248553875668</v>
+      </c>
+      <c r="F48">
+        <v>0.005353069440929345</v>
+      </c>
+      <c r="G48">
+        <v>0.003505428235176094</v>
+      </c>
+      <c r="H48">
+        <v>0.06227993477407225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06876029805498934</v>
+        <v>0.05416741175928482</v>
       </c>
       <c r="C50">
-        <v>0.06211764473036385</v>
+        <v>-0.067687550479638</v>
       </c>
       <c r="D50">
-        <v>0.06242692993526364</v>
+        <v>0.0561822351060347</v>
       </c>
       <c r="E50">
-        <v>-0.05341556422775984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.04608224518869286</v>
+      </c>
+      <c r="F50">
+        <v>-0.04076921769772875</v>
+      </c>
+      <c r="G50">
+        <v>-0.01388983943461006</v>
+      </c>
+      <c r="H50">
+        <v>0.04701938915699895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01028822546561751</v>
+        <v>0.008639272087068326</v>
       </c>
       <c r="C51">
-        <v>0.01840976504147488</v>
+        <v>-0.01904662607678789</v>
       </c>
       <c r="D51">
-        <v>0.0830423853086488</v>
+        <v>0.087807001386268</v>
       </c>
       <c r="E51">
-        <v>-0.02206648792911647</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0136054967280137</v>
+      </c>
+      <c r="F51">
+        <v>0.001948027817018016</v>
+      </c>
+      <c r="G51">
+        <v>-0.02101138252970854</v>
+      </c>
+      <c r="H51">
+        <v>0.07687146719117142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08078149959604246</v>
+        <v>0.08557922668726309</v>
       </c>
       <c r="C53">
-        <v>0.09328417303570415</v>
+        <v>-0.103392194492373</v>
       </c>
       <c r="D53">
-        <v>0.02038817704396707</v>
+        <v>0.01104682777239401</v>
       </c>
       <c r="E53">
-        <v>-0.09199253575744069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.1055657059849388</v>
+      </c>
+      <c r="F53">
+        <v>-0.0431611469957635</v>
+      </c>
+      <c r="G53">
+        <v>0.08953888463781923</v>
+      </c>
+      <c r="H53">
+        <v>0.009436604436482473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03108411719743066</v>
+        <v>0.02599676754887213</v>
       </c>
       <c r="C54">
-        <v>0.03229821544454268</v>
+        <v>-0.03607565220369652</v>
       </c>
       <c r="D54">
-        <v>0.08966153379752226</v>
+        <v>0.08695060495087895</v>
       </c>
       <c r="E54">
-        <v>-0.05357062480855002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0423494335446602</v>
+      </c>
+      <c r="F54">
+        <v>0.01417809292436158</v>
+      </c>
+      <c r="G54">
+        <v>-0.02504216080495492</v>
+      </c>
+      <c r="H54">
+        <v>0.1142761671599781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08916580059364762</v>
+        <v>0.08442068815987325</v>
       </c>
       <c r="C55">
-        <v>0.06622255260637805</v>
+        <v>-0.08217106258816897</v>
       </c>
       <c r="D55">
-        <v>-0.005354635188081272</v>
+        <v>-0.009485478732997661</v>
       </c>
       <c r="E55">
-        <v>-0.05294244179962631</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06007115871796978</v>
+      </c>
+      <c r="F55">
+        <v>-0.04110946653515832</v>
+      </c>
+      <c r="G55">
+        <v>0.04546507209509307</v>
+      </c>
+      <c r="H55">
+        <v>-0.00654368166858836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1362060374876872</v>
+        <v>0.1285861296363276</v>
       </c>
       <c r="C56">
-        <v>0.1015213792938562</v>
+        <v>-0.1264089288606857</v>
       </c>
       <c r="D56">
-        <v>0.008114548940428594</v>
+        <v>-0.007082717918576265</v>
       </c>
       <c r="E56">
-        <v>-0.04488868855533568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.06318645173401202</v>
+      </c>
+      <c r="F56">
+        <v>-0.03091953706278512</v>
+      </c>
+      <c r="G56">
+        <v>0.048939709550836</v>
+      </c>
+      <c r="H56">
+        <v>-0.002655662365869547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.02375491157919322</v>
+        <v>0.02946887456664356</v>
       </c>
       <c r="C58">
-        <v>-0.0290463560618761</v>
+        <v>-0.0165831181761531</v>
       </c>
       <c r="D58">
-        <v>0.3641753284469443</v>
+        <v>0.3857086519977018</v>
       </c>
       <c r="E58">
-        <v>-0.2188042109077195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2001042543046</v>
+      </c>
+      <c r="F58">
+        <v>-0.1419333905489941</v>
+      </c>
+      <c r="G58">
+        <v>-0.2476465860080487</v>
+      </c>
+      <c r="H58">
+        <v>-0.4275088993551146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1431134605929565</v>
+        <v>0.1775876827230411</v>
       </c>
       <c r="C59">
-        <v>-0.1897446025388601</v>
+        <v>0.1682800019204808</v>
       </c>
       <c r="D59">
-        <v>0.02782829098505361</v>
+        <v>0.0510314952286121</v>
       </c>
       <c r="E59">
-        <v>-0.03259391987565519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01818644109268366</v>
+      </c>
+      <c r="F59">
+        <v>0.04311543265557031</v>
+      </c>
+      <c r="G59">
+        <v>0.000890692420141707</v>
+      </c>
+      <c r="H59">
+        <v>-0.02417941343472662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2505930917559705</v>
+        <v>0.2265579901009962</v>
       </c>
       <c r="C60">
-        <v>0.06752138190563584</v>
+        <v>-0.1028622107463734</v>
       </c>
       <c r="D60">
-        <v>0.1626219487289909</v>
+        <v>0.1112190196773751</v>
       </c>
       <c r="E60">
-        <v>0.3304386520120015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.3684921316668179</v>
+      </c>
+      <c r="F60">
+        <v>-0.02691153660317525</v>
+      </c>
+      <c r="G60">
+        <v>0.04261612457002612</v>
+      </c>
+      <c r="H60">
+        <v>-0.1121265224778679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04502114904428724</v>
+        <v>0.03982015999721488</v>
       </c>
       <c r="C61">
-        <v>0.05238047344368033</v>
+        <v>-0.06109827692243492</v>
       </c>
       <c r="D61">
-        <v>0.0977003978605603</v>
+        <v>0.09268205482005584</v>
       </c>
       <c r="E61">
-        <v>-0.0248456723107061</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.002928571268387838</v>
+      </c>
+      <c r="F61">
+        <v>0.01717221561780769</v>
+      </c>
+      <c r="G61">
+        <v>0.004606071676513812</v>
+      </c>
+      <c r="H61">
+        <v>0.08064609340038648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0151428204834775</v>
+        <v>0.01367076014363174</v>
       </c>
       <c r="C63">
-        <v>0.0221311893389789</v>
+        <v>-0.03324213643222351</v>
       </c>
       <c r="D63">
-        <v>0.06395777478907967</v>
+        <v>0.06905315427950669</v>
       </c>
       <c r="E63">
-        <v>-0.03897548015313265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.03128931908617859</v>
+      </c>
+      <c r="F63">
+        <v>-0.01688802192318282</v>
+      </c>
+      <c r="G63">
+        <v>-0.005714006058739046</v>
+      </c>
+      <c r="H63">
+        <v>0.05201761444935005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0554494140178047</v>
+        <v>0.05333225434454056</v>
       </c>
       <c r="C64">
-        <v>0.06470032584142586</v>
+        <v>-0.08121268381557976</v>
       </c>
       <c r="D64">
-        <v>0.0588574164458014</v>
+        <v>0.05349490928397779</v>
       </c>
       <c r="E64">
-        <v>-0.04352996746950416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02623023998665252</v>
+      </c>
+      <c r="F64">
+        <v>0.01547202605253525</v>
+      </c>
+      <c r="G64">
+        <v>0.05257780095901781</v>
+      </c>
+      <c r="H64">
+        <v>0.06486515271016469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05510600718600753</v>
+        <v>0.04812171784408206</v>
       </c>
       <c r="C65">
-        <v>0.005561481749017772</v>
+        <v>-0.02578387586191723</v>
       </c>
       <c r="D65">
-        <v>0.1097005862317848</v>
+        <v>0.1146238967994063</v>
       </c>
       <c r="E65">
-        <v>-0.03057449516768559</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.002763697790821253</v>
+      </c>
+      <c r="F65">
+        <v>-0.01371996705250188</v>
+      </c>
+      <c r="G65">
+        <v>-0.02963511348363274</v>
+      </c>
+      <c r="H65">
+        <v>-0.02940777950231816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04386526802944198</v>
+        <v>0.0398151058988302</v>
       </c>
       <c r="C66">
-        <v>0.0553517266080018</v>
+        <v>-0.07395403586673134</v>
       </c>
       <c r="D66">
-        <v>0.1120222644605553</v>
+        <v>0.12999508933982</v>
       </c>
       <c r="E66">
-        <v>-0.0236385738818532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01268086927142561</v>
+      </c>
+      <c r="F66">
+        <v>0.01151787116024616</v>
+      </c>
+      <c r="G66">
+        <v>-0.01799667173376011</v>
+      </c>
+      <c r="H66">
+        <v>0.05578481193414505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04277647099366484</v>
+        <v>0.03614273029918199</v>
       </c>
       <c r="C67">
-        <v>0.02469901797365485</v>
+        <v>-0.02817951823445414</v>
       </c>
       <c r="D67">
-        <v>0.02066573055732892</v>
+        <v>0.01703555953508927</v>
       </c>
       <c r="E67">
-        <v>-0.03001080778925439</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01700394603934096</v>
+      </c>
+      <c r="F67">
+        <v>0.0002392452870820699</v>
+      </c>
+      <c r="G67">
+        <v>-0.03581687926083651</v>
+      </c>
+      <c r="H67">
+        <v>0.03409567174030913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1677108418827497</v>
+        <v>0.1970729474072201</v>
       </c>
       <c r="C68">
-        <v>-0.2449433975148869</v>
+        <v>0.2003797832112593</v>
       </c>
       <c r="D68">
-        <v>-0.01949125418048137</v>
+        <v>0.01179028290259108</v>
       </c>
       <c r="E68">
-        <v>-0.04728017224814686</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.05448917141479076</v>
+      </c>
+      <c r="F68">
+        <v>-0.02738916457365039</v>
+      </c>
+      <c r="G68">
+        <v>-0.009192178609775723</v>
+      </c>
+      <c r="H68">
+        <v>-0.001203211734093005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08201953407567494</v>
+        <v>0.07452489520821483</v>
       </c>
       <c r="C69">
-        <v>0.083938772129272</v>
+        <v>-0.09839992578701146</v>
       </c>
       <c r="D69">
-        <v>0.05963717126921311</v>
+        <v>0.04574555520517849</v>
       </c>
       <c r="E69">
-        <v>-0.02569919430697479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02649012310572921</v>
+      </c>
+      <c r="F69">
+        <v>-0.004373723651299026</v>
+      </c>
+      <c r="G69">
+        <v>0.03083125950866064</v>
+      </c>
+      <c r="H69">
+        <v>0.03589618564943298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1448161433497764</v>
+        <v>0.1829729233660435</v>
       </c>
       <c r="C71">
-        <v>-0.2415381746884344</v>
+        <v>0.2109760941802401</v>
       </c>
       <c r="D71">
-        <v>0.017290032224003</v>
+        <v>0.03509376852184</v>
       </c>
       <c r="E71">
-        <v>-0.04940099836680012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.05457700336425597</v>
+      </c>
+      <c r="F71">
+        <v>-0.0314856856220178</v>
+      </c>
+      <c r="G71">
+        <v>0.01954895687709419</v>
+      </c>
+      <c r="H71">
+        <v>0.02529047092519427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09688043036711727</v>
+        <v>0.09863718848196827</v>
       </c>
       <c r="C72">
-        <v>0.03803417058879387</v>
+        <v>-0.06822615397105945</v>
       </c>
       <c r="D72">
-        <v>0.09032912443131277</v>
+        <v>0.09575070907576884</v>
       </c>
       <c r="E72">
-        <v>0.01943400301160993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0346799516547703</v>
+      </c>
+      <c r="F72">
+        <v>-0.03716697123859451</v>
+      </c>
+      <c r="G72">
+        <v>0.0316609324243705</v>
+      </c>
+      <c r="H72">
+        <v>0.04202025396582417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2757789984648556</v>
+        <v>0.2441211941520245</v>
       </c>
       <c r="C73">
-        <v>0.01372866317027839</v>
+        <v>-0.08319242264823637</v>
       </c>
       <c r="D73">
-        <v>0.2726756587598141</v>
+        <v>0.1776668938910052</v>
       </c>
       <c r="E73">
-        <v>0.6469895842056375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.6660555654653404</v>
+      </c>
+      <c r="F73">
+        <v>-0.02622303335258769</v>
+      </c>
+      <c r="G73">
+        <v>0.01344464234804885</v>
+      </c>
+      <c r="H73">
+        <v>-0.1465845600431637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.107256554238454</v>
+        <v>0.09851986076663509</v>
       </c>
       <c r="C74">
-        <v>0.07882067962252004</v>
+        <v>-0.09293169091373153</v>
       </c>
       <c r="D74">
-        <v>0.01647345551552974</v>
+        <v>-0.00362305176271785</v>
       </c>
       <c r="E74">
-        <v>-0.08111456890340332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07942632599871922</v>
+      </c>
+      <c r="F74">
+        <v>-0.05735648000538891</v>
+      </c>
+      <c r="G74">
+        <v>0.06389726357126219</v>
+      </c>
+      <c r="H74">
+        <v>-0.02732273275654548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2453023931083844</v>
+        <v>0.2276399403567192</v>
       </c>
       <c r="C75">
-        <v>0.1262281562972196</v>
+        <v>-0.1697835272682786</v>
       </c>
       <c r="D75">
-        <v>-0.06851371160662934</v>
+        <v>-0.09500788448424055</v>
       </c>
       <c r="E75">
-        <v>-0.1031771234720543</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1029835832692528</v>
+      </c>
+      <c r="F75">
+        <v>-0.004326212863717388</v>
+      </c>
+      <c r="G75">
+        <v>0.06060283814445633</v>
+      </c>
+      <c r="H75">
+        <v>-0.1107383115005114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1376148594046433</v>
+        <v>0.1267342674168127</v>
       </c>
       <c r="C76">
-        <v>0.08890617011254248</v>
+        <v>-0.1158845720165778</v>
       </c>
       <c r="D76">
-        <v>-0.000119032074113741</v>
+        <v>-0.01424706177843659</v>
       </c>
       <c r="E76">
-        <v>-0.1326355638245495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.1155925881782282</v>
+      </c>
+      <c r="F76">
+        <v>-0.0198855217208796</v>
+      </c>
+      <c r="G76">
+        <v>0.04725136686659773</v>
+      </c>
+      <c r="H76">
+        <v>0.003137411203912257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06552101046254569</v>
+        <v>0.06082300925302216</v>
       </c>
       <c r="C77">
-        <v>0.05794784818033216</v>
+        <v>-0.07095392684246532</v>
       </c>
       <c r="D77">
-        <v>0.04394273614301508</v>
+        <v>0.126351007887383</v>
       </c>
       <c r="E77">
-        <v>-0.183559777966543</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.204506216606645</v>
+      </c>
+      <c r="F77">
+        <v>0.2526937761301817</v>
+      </c>
+      <c r="G77">
+        <v>-0.2011625101829244</v>
+      </c>
+      <c r="H77">
+        <v>-0.3685247232975261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04380561979959938</v>
+        <v>0.04228138646597746</v>
       </c>
       <c r="C78">
-        <v>0.05441899793530455</v>
+        <v>-0.06635761830136294</v>
       </c>
       <c r="D78">
-        <v>0.1176796306798827</v>
+        <v>0.130387010551893</v>
       </c>
       <c r="E78">
-        <v>0.001526743118094452</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01460186834919393</v>
+      </c>
+      <c r="F78">
+        <v>-0.008102897165181828</v>
+      </c>
+      <c r="G78">
+        <v>0.01471691640708767</v>
+      </c>
+      <c r="H78">
+        <v>0.02676242157182872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.007558008042276227</v>
+        <v>0.04425568386517233</v>
       </c>
       <c r="C79">
-        <v>0.05826362984539128</v>
+        <v>-0.0899350202015686</v>
       </c>
       <c r="D79">
-        <v>0.006046275508784699</v>
+        <v>-0.02375880228445523</v>
       </c>
       <c r="E79">
-        <v>-0.06919876015836243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1910827933624499</v>
+      </c>
+      <c r="F79">
+        <v>-0.1208420331121866</v>
+      </c>
+      <c r="G79">
+        <v>0.7276647790440479</v>
+      </c>
+      <c r="H79">
+        <v>-0.3374908145756609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03356314477447108</v>
+        <v>0.02584897637215722</v>
       </c>
       <c r="C80">
-        <v>0.02919848248244538</v>
+        <v>-0.0438261941974727</v>
       </c>
       <c r="D80">
-        <v>0.02789640743670236</v>
+        <v>0.03384913440627747</v>
       </c>
       <c r="E80">
-        <v>-0.05343034944961574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02120301602845905</v>
+      </c>
+      <c r="F80">
+        <v>0.03332416070479512</v>
+      </c>
+      <c r="G80">
+        <v>-0.05134816310283661</v>
+      </c>
+      <c r="H80">
+        <v>0.01860694344423049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.142999928554212</v>
+        <v>0.1266510949988069</v>
       </c>
       <c r="C81">
-        <v>0.09912455561127789</v>
+        <v>-0.1186515120262784</v>
       </c>
       <c r="D81">
-        <v>-0.04829397811030457</v>
+        <v>-0.06540845989740071</v>
       </c>
       <c r="E81">
-        <v>-0.1236676138291715</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.118199806698404</v>
+      </c>
+      <c r="F81">
+        <v>-0.02072557441085302</v>
+      </c>
+      <c r="G81">
+        <v>0.04948564966498954</v>
+      </c>
+      <c r="H81">
+        <v>-0.01294425042886273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3040144704372545</v>
+        <v>0.2534842908650362</v>
       </c>
       <c r="C82">
-        <v>0.2683014168637411</v>
+        <v>-0.2603212321295904</v>
       </c>
       <c r="D82">
-        <v>-0.2189061718906627</v>
+        <v>-0.2235336914548161</v>
       </c>
       <c r="E82">
-        <v>0.06087950921186365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01850181495123603</v>
+      </c>
+      <c r="F82">
+        <v>-0.04489164231744502</v>
+      </c>
+      <c r="G82">
+        <v>0.07243381799903598</v>
+      </c>
+      <c r="H82">
+        <v>0.4471530659974768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02979501341776232</v>
+        <v>0.02240577649314496</v>
       </c>
       <c r="C83">
-        <v>0.04671366133721376</v>
+        <v>-0.05278802829138846</v>
       </c>
       <c r="D83">
-        <v>0.04669185377662199</v>
+        <v>0.04988507998043312</v>
       </c>
       <c r="E83">
-        <v>-0.01578465099654831</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.01194079894562838</v>
+      </c>
+      <c r="F83">
+        <v>0.02314812849227992</v>
+      </c>
+      <c r="G83">
+        <v>-0.01734354444675483</v>
+      </c>
+      <c r="H83">
+        <v>0.02142824618310126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001956216737591345</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00497105490222229</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.01684760897088532</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01560357953937962</v>
+      </c>
+      <c r="F84">
+        <v>-0.007867512023492071</v>
+      </c>
+      <c r="G84">
+        <v>-0.007394253836082467</v>
+      </c>
+      <c r="H84">
+        <v>0.001728042495095754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1812252555558671</v>
+        <v>0.1585609101327948</v>
       </c>
       <c r="C85">
-        <v>0.1019645312773375</v>
+        <v>-0.1371758621681799</v>
       </c>
       <c r="D85">
-        <v>-0.03581411303515059</v>
+        <v>-0.06671189559691554</v>
       </c>
       <c r="E85">
-        <v>-0.03586089116502519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.050392683632399</v>
+      </c>
+      <c r="F85">
+        <v>-0.03517399466526464</v>
+      </c>
+      <c r="G85">
+        <v>0.09587080749023692</v>
+      </c>
+      <c r="H85">
+        <v>-0.08572023933334097</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01742702245247183</v>
+        <v>0.01935536735453759</v>
       </c>
       <c r="C86">
-        <v>0.02039932504304927</v>
+        <v>-0.02266180345936624</v>
       </c>
       <c r="D86">
-        <v>0.1427496955434973</v>
+        <v>0.1296440147860894</v>
       </c>
       <c r="E86">
-        <v>-0.01375245299466525</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0110757076521354</v>
+      </c>
+      <c r="F86">
+        <v>0.01695994863695235</v>
+      </c>
+      <c r="G86">
+        <v>-0.006072140857817698</v>
+      </c>
+      <c r="H86">
+        <v>0.05911867863438744</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02791336039048923</v>
+        <v>0.03332477676922586</v>
       </c>
       <c r="C87">
-        <v>0.004739391654807081</v>
+        <v>-0.02530873073437858</v>
       </c>
       <c r="D87">
-        <v>0.0986642223088853</v>
+        <v>0.1318165741447768</v>
       </c>
       <c r="E87">
-        <v>-0.1008067142131473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08237557392986176</v>
+      </c>
+      <c r="F87">
+        <v>0.01223285634829626</v>
+      </c>
+      <c r="G87">
+        <v>-0.01835523742388995</v>
+      </c>
+      <c r="H87">
+        <v>0.03004780082176877</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07810452617872701</v>
+        <v>0.06866514582910904</v>
       </c>
       <c r="C88">
-        <v>0.04567272756453444</v>
+        <v>-0.05932325164135657</v>
       </c>
       <c r="D88">
-        <v>0.03311303340077669</v>
+        <v>0.01533090595537685</v>
       </c>
       <c r="E88">
-        <v>-0.04516290511856853</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01904783406270815</v>
+      </c>
+      <c r="F88">
+        <v>-0.005302125897430919</v>
+      </c>
+      <c r="G88">
+        <v>0.0003378572806866001</v>
+      </c>
+      <c r="H88">
+        <v>0.03836740341847961</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2066968325153118</v>
+        <v>0.2787104777041008</v>
       </c>
       <c r="C89">
-        <v>-0.3750361791255526</v>
+        <v>0.3526501500363316</v>
       </c>
       <c r="D89">
-        <v>-0.03581195697955386</v>
+        <v>-0.008690586939371822</v>
       </c>
       <c r="E89">
-        <v>-0.05919257876040805</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04728651820945274</v>
+      </c>
+      <c r="F89">
+        <v>0.0464710708626935</v>
+      </c>
+      <c r="G89">
+        <v>0.04090620463633738</v>
+      </c>
+      <c r="H89">
+        <v>0.07382273059224012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.203498464167089</v>
+        <v>0.2424771492605105</v>
       </c>
       <c r="C90">
-        <v>-0.2947474763192121</v>
+        <v>0.2539714603321849</v>
       </c>
       <c r="D90">
-        <v>-0.0310142392005151</v>
+        <v>0.01324849690641305</v>
       </c>
       <c r="E90">
-        <v>-0.0501057483732445</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04540135819784388</v>
+      </c>
+      <c r="F90">
+        <v>-0.01216455707816069</v>
+      </c>
+      <c r="G90">
+        <v>-0.05126755749712682</v>
+      </c>
+      <c r="H90">
+        <v>0.04058525513711052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1777899590950989</v>
+        <v>0.1591987683653008</v>
       </c>
       <c r="C91">
-        <v>0.1429573247051144</v>
+        <v>-0.1596520019984454</v>
       </c>
       <c r="D91">
-        <v>-0.06236915350888939</v>
+        <v>-0.08563519987711331</v>
       </c>
       <c r="E91">
-        <v>-0.09416076635495427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1075350733284909</v>
+      </c>
+      <c r="F91">
+        <v>-0.02556315450778773</v>
+      </c>
+      <c r="G91">
+        <v>0.09670047400700373</v>
+      </c>
+      <c r="H91">
+        <v>-0.0867589805799759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1748576016563779</v>
+        <v>0.2216983383733114</v>
       </c>
       <c r="C92">
-        <v>-0.2847087735474803</v>
+        <v>0.2692543040494863</v>
       </c>
       <c r="D92">
-        <v>0.004413990971971155</v>
+        <v>0.02761682489402851</v>
       </c>
       <c r="E92">
-        <v>-0.1140595937380345</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.09086169716317331</v>
+      </c>
+      <c r="F92">
+        <v>0.01747235618604678</v>
+      </c>
+      <c r="G92">
+        <v>-0.01463378416213913</v>
+      </c>
+      <c r="H92">
+        <v>0.03917793245922364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2349150803586306</v>
+        <v>0.2683434570483473</v>
       </c>
       <c r="C93">
-        <v>-0.313882153921797</v>
+        <v>0.268159466140561</v>
       </c>
       <c r="D93">
-        <v>-0.004935328111340078</v>
+        <v>-0.003885776510738592</v>
       </c>
       <c r="E93">
-        <v>-0.04140940980615674</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01873364820808834</v>
+      </c>
+      <c r="F93">
+        <v>-0.02367713535903584</v>
+      </c>
+      <c r="G93">
+        <v>0.002674979236862271</v>
+      </c>
+      <c r="H93">
+        <v>-0.003219031405495933</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3889502854703697</v>
+        <v>0.3357976882796653</v>
       </c>
       <c r="C94">
-        <v>0.2277629676941336</v>
+        <v>-0.2674375942685568</v>
       </c>
       <c r="D94">
-        <v>-0.4627849404864839</v>
+        <v>-0.4326520009289411</v>
       </c>
       <c r="E94">
-        <v>-0.08122427660927235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09139373113859497</v>
+      </c>
+      <c r="F94">
+        <v>0.01733848732381399</v>
+      </c>
+      <c r="G94">
+        <v>-0.4866336101517194</v>
+      </c>
+      <c r="H94">
+        <v>-0.1670594179618768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07405489681322129</v>
+        <v>0.06548763815402922</v>
       </c>
       <c r="C95">
-        <v>0.06921080938235995</v>
+        <v>-0.06527831347137424</v>
       </c>
       <c r="D95">
-        <v>0.1097080988992383</v>
+        <v>0.07703086860099267</v>
       </c>
       <c r="E95">
-        <v>-0.2155877972679577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.007054154887000243</v>
+      </c>
+      <c r="F95">
+        <v>0.9181787274260736</v>
+      </c>
+      <c r="G95">
+        <v>0.1302404575063548</v>
+      </c>
+      <c r="H95">
+        <v>-0.001381844988187859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +3190,19 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +3216,45 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1753414026951601</v>
+        <v>0.1623516020332473</v>
       </c>
       <c r="C98">
-        <v>0.02502004586942351</v>
+        <v>-0.06460929442857724</v>
       </c>
       <c r="D98">
-        <v>0.1580660517054761</v>
+        <v>0.1330047821831311</v>
       </c>
       <c r="E98">
-        <v>0.2747536653819463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.3183458143915338</v>
+      </c>
+      <c r="F98">
+        <v>-0.05220790786215282</v>
+      </c>
+      <c r="G98">
+        <v>0.05017901453443034</v>
+      </c>
+      <c r="H98">
+        <v>-0.04923945107907324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006215889011045527</v>
+        <v>0.006811258608615645</v>
       </c>
       <c r="C101">
-        <v>0.01950614103582495</v>
+        <v>-0.02258865796395975</v>
       </c>
       <c r="D101">
-        <v>0.06579271897630774</v>
+        <v>0.07995710064339991</v>
       </c>
       <c r="E101">
-        <v>-0.04690699153675278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03402647833382131</v>
+      </c>
+      <c r="F101">
+        <v>-0.00384674159919392</v>
+      </c>
+      <c r="G101">
+        <v>0.002710773852542797</v>
+      </c>
+      <c r="H101">
+        <v>0.1099992650899276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1222537571081009</v>
+        <v>0.1065532329580008</v>
       </c>
       <c r="C102">
-        <v>0.1166792791144626</v>
+        <v>-0.1205377879284246</v>
       </c>
       <c r="D102">
-        <v>-0.03651806382801243</v>
+        <v>-0.05532350855518452</v>
       </c>
       <c r="E102">
-        <v>-0.03883530723976587</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03325428721829019</v>
+      </c>
+      <c r="F102">
+        <v>0.02237621907109318</v>
+      </c>
+      <c r="G102">
+        <v>0.03404583985343587</v>
+      </c>
+      <c r="H102">
+        <v>0.03044487608854595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
